--- a/data/raw/INFANL1-2020-2021 EXAM first chance.xlsx
+++ b/data/raw/INFANL1-2020-2021 EXAM first chance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejdobrkovic/extra/courses/2223datascience/(X3) black/(02) ANL sources/anonymized/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiaQiang\Desktop\Project DS Analysis\DsAnalysisProject\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBBAC86-6F8A-B147-9AE9-EE878975B6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BA8051-BE1A-456C-BBA1-4135E104E1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="860" windowWidth="27640" windowHeight="15820" xr2:uid="{E27A7B7D-57A1-4448-AE5A-1BA7705F49BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E27A7B7D-57A1-4448-AE5A-1BA7705F49BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12430" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12430" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Expected:</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1317,22 +1320,22 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="8.83203125" style="1"/>
-    <col min="24" max="24" width="2.6640625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="2.625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1357,7 +1360,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="F3" s="6" t="s">
         <v>24</v>
@@ -1386,11 +1389,11 @@
       </c>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="12" t="s">
         <v>17</v>
@@ -1457,7 +1460,7 @@
       </c>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="15" t="s">
         <v>27</v>
@@ -1544,7 +1547,7 @@
       </c>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="15" t="s">
         <v>28</v>
@@ -1631,7 +1634,7 @@
       </c>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="18" t="s">
         <v>29</v>
@@ -1718,11 +1721,11 @@
       </c>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="12" t="s">
         <v>17</v>
@@ -1789,7 +1792,7 @@
       </c>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="15" t="s">
         <v>27</v>
@@ -1876,7 +1879,7 @@
       </c>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="15" t="s">
         <v>28</v>
@@ -1963,7 +1966,7 @@
       </c>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="18" t="s">
         <v>29</v>
@@ -2050,15 +2053,15 @@
       </c>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="X14" s="11"/>
     </row>
-    <row r="15" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="J16" s="6" t="s">
         <v>30</v>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2105,7 +2108,7 @@
       <c r="W17" s="23"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2117,18 +2120,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AT291"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="43" width="4.1640625" customWidth="1"/>
+    <col min="4" max="43" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2266,7 +2269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2475836</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2466608</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2371373</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2460222</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2470463</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2446033</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2445663</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2477249</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2463394</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2447854</v>
       </c>
@@ -3636,7 +3639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2367347</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2383071</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="69">
         <v>2474960</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2477415</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2575386</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2460275</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2471844</v>
       </c>
@@ -4595,7 +4598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2469368</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2460178</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2466637</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2472609</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2473919</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2472950</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2470724</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2449284</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2375249</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2474444</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2459206</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2473077</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2463987</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2461060</v>
       </c>
@@ -6513,7 +6516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" s="69">
         <v>2471197</v>
       </c>
@@ -6650,7 +6653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2445567</v>
       </c>
@@ -6787,7 +6790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2467427</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2459364</v>
       </c>
@@ -7061,7 +7064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2467425</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2397007</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2395330</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2468759</v>
       </c>
@@ -7609,7 +7612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2461288</v>
       </c>
@@ -7746,7 +7749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2500187</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2472947</v>
       </c>
@@ -8020,7 +8023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2397335</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2468164</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2476680</v>
       </c>
@@ -8431,7 +8434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2489728</v>
       </c>
@@ -8568,7 +8571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2461897</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2447454</v>
       </c>
@@ -8842,7 +8845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2389243</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2466569</v>
       </c>
@@ -9116,7 +9119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2448095</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2448317</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2477408</v>
       </c>
@@ -9527,7 +9530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2445979</v>
       </c>
@@ -9664,7 +9667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2461100</v>
       </c>
@@ -9801,7 +9804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2448118</v>
       </c>
@@ -9938,7 +9941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2441251</v>
       </c>
@@ -10075,7 +10078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2468230</v>
       </c>
@@ -10212,7 +10215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2461323</v>
       </c>
@@ -10349,7 +10352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2472539</v>
       </c>
@@ -10486,7 +10489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2460825</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" s="69">
         <v>2461409</v>
       </c>
@@ -10760,7 +10763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2469215</v>
       </c>
@@ -10897,7 +10900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2460816</v>
       </c>
@@ -11034,7 +11037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2397400</v>
       </c>
@@ -11171,7 +11174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2374905</v>
       </c>
@@ -11308,7 +11311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2448788</v>
       </c>
@@ -11445,7 +11448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2486354</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2466206</v>
       </c>
@@ -11719,7 +11722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2445958</v>
       </c>
@@ -11856,7 +11859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2465376</v>
       </c>
@@ -11993,7 +11996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2483362</v>
       </c>
@@ -12130,7 +12133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2474484</v>
       </c>
@@ -12267,7 +12270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2473590</v>
       </c>
@@ -12404,7 +12407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2480713</v>
       </c>
@@ -12541,7 +12544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2483552</v>
       </c>
@@ -12678,7 +12681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2483652</v>
       </c>
@@ -12815,7 +12818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2471517</v>
       </c>
@@ -12952,7 +12955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2441545</v>
       </c>
@@ -13089,7 +13092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2457661</v>
       </c>
@@ -13226,7 +13229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2474652</v>
       </c>
@@ -13363,7 +13366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2469868</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2633925</v>
       </c>
@@ -13637,7 +13640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2464875</v>
       </c>
@@ -13774,7 +13777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2462438</v>
       </c>
@@ -13911,7 +13914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2383406</v>
       </c>
@@ -14048,7 +14051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2446004</v>
       </c>
@@ -14185,7 +14188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2391565</v>
       </c>
@@ -14322,7 +14325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2363900</v>
       </c>
@@ -14459,7 +14462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2471046</v>
       </c>
@@ -14596,7 +14599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2386066</v>
       </c>
@@ -14733,7 +14736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2486240</v>
       </c>
@@ -14870,7 +14873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2478047</v>
       </c>
@@ -15007,7 +15010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2448949</v>
       </c>
@@ -15144,7 +15147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2447003</v>
       </c>
@@ -15281,7 +15284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2470419</v>
       </c>
@@ -15418,7 +15421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2489657</v>
       </c>
@@ -15555,7 +15558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2468369</v>
       </c>
@@ -15692,7 +15695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2447821</v>
       </c>
@@ -15829,7 +15832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2468597</v>
       </c>
@@ -15966,7 +15969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2465549</v>
       </c>
@@ -16103,7 +16106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2472746</v>
       </c>
@@ -16240,7 +16243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2448032</v>
       </c>
@@ -16377,7 +16380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2490320</v>
       </c>
@@ -16514,7 +16517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2458180</v>
       </c>
@@ -16651,7 +16654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2488572</v>
       </c>
@@ -16788,7 +16791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2445320</v>
       </c>
@@ -16925,7 +16928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2470025</v>
       </c>
@@ -17062,7 +17065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2490093</v>
       </c>
@@ -17199,7 +17202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2463439</v>
       </c>
@@ -17336,7 +17339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2467283</v>
       </c>
@@ -17473,7 +17476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2468143</v>
       </c>
@@ -17610,7 +17613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2465220</v>
       </c>
@@ -17747,7 +17750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2569746</v>
       </c>
@@ -17884,7 +17887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2460367</v>
       </c>
@@ -18021,7 +18024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2476102</v>
       </c>
@@ -18158,7 +18161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2475501</v>
       </c>
@@ -18295,7 +18298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2488564</v>
       </c>
@@ -18432,7 +18435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2563749</v>
       </c>
@@ -18569,7 +18572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2479407</v>
       </c>
@@ -18706,7 +18709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2464769</v>
       </c>
@@ -18843,7 +18846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2445951</v>
       </c>
@@ -18980,7 +18983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2446915</v>
       </c>
@@ -19117,7 +19120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2472033</v>
       </c>
@@ -19254,7 +19257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2460236</v>
       </c>
@@ -19391,7 +19394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2404288</v>
       </c>
@@ -19528,7 +19531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2462740</v>
       </c>
@@ -19665,7 +19668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2587517</v>
       </c>
@@ -19802,7 +19805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2473029</v>
       </c>
@@ -19939,7 +19942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2445750</v>
       </c>
@@ -20076,7 +20079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2475992</v>
       </c>
@@ -20213,7 +20216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2459332</v>
       </c>
@@ -20350,7 +20353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2472834</v>
       </c>
@@ -20487,7 +20490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2459587</v>
       </c>
@@ -20624,7 +20627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2471666</v>
       </c>
@@ -20761,7 +20764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2459147</v>
       </c>
@@ -20898,7 +20901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2472842</v>
       </c>
@@ -21035,7 +21038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2489791</v>
       </c>
@@ -21172,7 +21175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2460095</v>
       </c>
@@ -21309,7 +21312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2468204</v>
       </c>
@@ -21446,7 +21449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2470394</v>
       </c>
@@ -21583,7 +21586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2471982</v>
       </c>
@@ -21720,7 +21723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2469670</v>
       </c>
@@ -21857,7 +21860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2471085</v>
       </c>
@@ -21994,7 +21997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2460930</v>
       </c>
@@ -22131,7 +22134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2464574</v>
       </c>
@@ -22268,7 +22271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2381943</v>
       </c>
@@ -22405,7 +22408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2446193</v>
       </c>
@@ -22542,7 +22545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2472434</v>
       </c>
@@ -22679,7 +22682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2471344</v>
       </c>
@@ -22816,7 +22819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2466114</v>
       </c>
@@ -22953,7 +22956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2459967</v>
       </c>
@@ -23090,7 +23093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2369630</v>
       </c>
@@ -23227,7 +23230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2470406</v>
       </c>
@@ -23364,7 +23367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2471509</v>
       </c>
@@ -23501,7 +23504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2449280</v>
       </c>
@@ -23638,7 +23641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2471245</v>
       </c>
@@ -23775,7 +23778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2473388</v>
       </c>
@@ -23912,7 +23915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2463984</v>
       </c>
@@ -24049,7 +24052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2459737</v>
       </c>
@@ -24186,7 +24189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2462671</v>
       </c>
@@ -24323,7 +24326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2466786</v>
       </c>
@@ -24460,7 +24463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2394721</v>
       </c>
@@ -24597,7 +24600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2473980</v>
       </c>
@@ -24734,7 +24737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2480771</v>
       </c>
@@ -24871,7 +24874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2472296</v>
       </c>
@@ -25008,7 +25011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2461711</v>
       </c>
@@ -25145,7 +25148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2446346</v>
       </c>
@@ -25282,7 +25285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2466477</v>
       </c>
@@ -25419,7 +25422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2470058</v>
       </c>
@@ -25556,7 +25559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2446469</v>
       </c>
@@ -25693,7 +25696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2471125</v>
       </c>
@@ -25830,7 +25833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2469091</v>
       </c>
@@ -25967,7 +25970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2470786</v>
       </c>
@@ -26104,7 +26107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2459209</v>
       </c>
@@ -26241,7 +26244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2458016</v>
       </c>
@@ -26378,7 +26381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2448525</v>
       </c>
@@ -26515,7 +26518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2369348</v>
       </c>
@@ -26652,7 +26655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2461221</v>
       </c>
@@ -26789,7 +26792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2471591</v>
       </c>
@@ -26926,7 +26929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2449234</v>
       </c>
@@ -27063,7 +27066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2365639</v>
       </c>
@@ -27200,7 +27203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2487380</v>
       </c>
@@ -27337,7 +27340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2470267</v>
       </c>
@@ -27474,7 +27477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2486349</v>
       </c>
@@ -27611,7 +27614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2442433</v>
       </c>
@@ -27748,7 +27751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2486689</v>
       </c>
@@ -27885,7 +27888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2488077</v>
       </c>
@@ -28022,7 +28025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2446057</v>
       </c>
@@ -28159,7 +28162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2469140</v>
       </c>
@@ -28296,7 +28299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2448512</v>
       </c>
@@ -28433,7 +28436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2461833</v>
       </c>
@@ -28570,7 +28573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2472752</v>
       </c>
@@ -28707,7 +28710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2457637</v>
       </c>
@@ -28844,7 +28847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2488264</v>
       </c>
@@ -28981,7 +28984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2483846</v>
       </c>
@@ -29118,7 +29121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2461838</v>
       </c>
@@ -29255,7 +29258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2468953</v>
       </c>
@@ -29392,7 +29395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2449040</v>
       </c>
@@ -29529,7 +29532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2556433</v>
       </c>
@@ -29666,7 +29669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2466812</v>
       </c>
@@ -29803,7 +29806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2369028</v>
       </c>
@@ -29940,7 +29943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2461567</v>
       </c>
@@ -30077,7 +30080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2401803</v>
       </c>
@@ -30214,7 +30217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2446578</v>
       </c>
@@ -30351,7 +30354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2461222</v>
       </c>
@@ -30488,7 +30491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2486018</v>
       </c>
@@ -30625,7 +30628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2459974</v>
       </c>
@@ -30762,7 +30765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2467819</v>
       </c>
@@ -30899,7 +30902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2488610</v>
       </c>
@@ -31036,7 +31039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2407419</v>
       </c>
@@ -31173,7 +31176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2472458</v>
       </c>
@@ -31310,7 +31313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2473892</v>
       </c>
@@ -31447,7 +31450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2488322</v>
       </c>
@@ -31584,7 +31587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2447571</v>
       </c>
@@ -31721,7 +31724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2462052</v>
       </c>
@@ -31858,7 +31861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2419913</v>
       </c>
@@ -31995,7 +31998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2446972</v>
       </c>
@@ -32132,7 +32135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2462258</v>
       </c>
@@ -32269,7 +32272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2380228</v>
       </c>
@@ -32406,7 +32409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2448578</v>
       </c>
@@ -32543,7 +32546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223" s="69">
         <v>2447323</v>
       </c>
@@ -32680,7 +32683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2467558</v>
       </c>
@@ -32817,7 +32820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2403568</v>
       </c>
@@ -32954,7 +32957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2473484</v>
       </c>
@@ -33091,7 +33094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2448530</v>
       </c>
@@ -33228,7 +33231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2473489</v>
       </c>
@@ -33365,7 +33368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2470138</v>
       </c>
@@ -33502,7 +33505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2446098</v>
       </c>
@@ -33639,7 +33642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2462744</v>
       </c>
@@ -33776,7 +33779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2387697</v>
       </c>
@@ -33913,7 +33916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2414832</v>
       </c>
@@ -34050,7 +34053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2460524</v>
       </c>
@@ -34187,7 +34190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2403829</v>
       </c>
@@ -34324,7 +34327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2466895</v>
       </c>
@@ -34461,7 +34464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2486181</v>
       </c>
@@ -34598,7 +34601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2460194</v>
       </c>
@@ -34735,7 +34738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2467462</v>
       </c>
@@ -34872,7 +34875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2462249</v>
       </c>
@@ -35009,7 +35012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2460514</v>
       </c>
@@ -35146,7 +35149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2449007</v>
       </c>
@@ -35283,7 +35286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2470432</v>
       </c>
@@ -35420,7 +35423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2457955</v>
       </c>
@@ -35557,7 +35560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2402647</v>
       </c>
@@ -35694,7 +35697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2467768</v>
       </c>
@@ -35831,7 +35834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2469297</v>
       </c>
@@ -35968,7 +35971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2568742</v>
       </c>
@@ -36105,7 +36108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2466089</v>
       </c>
@@ -36242,7 +36245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2489413</v>
       </c>
@@ -36379,7 +36382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2495925</v>
       </c>
@@ -36516,7 +36519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2384897</v>
       </c>
@@ -36653,7 +36656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2466479</v>
       </c>
@@ -36790,7 +36793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2466897</v>
       </c>
@@ -36927,7 +36930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2484868</v>
       </c>
@@ -37064,7 +37067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2470035</v>
       </c>
@@ -37201,7 +37204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2471383</v>
       </c>
@@ -37338,7 +37341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2486969</v>
       </c>
@@ -37475,7 +37478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2470597</v>
       </c>
@@ -37612,7 +37615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2482072</v>
       </c>
@@ -37749,7 +37752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2468534</v>
       </c>
@@ -37886,7 +37889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2484150</v>
       </c>
@@ -38023,7 +38026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2478675</v>
       </c>
@@ -38160,7 +38163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2463162</v>
       </c>
@@ -38297,7 +38300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2447119</v>
       </c>
@@ -38434,7 +38437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2460979</v>
       </c>
@@ -38571,7 +38574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2479981</v>
       </c>
@@ -38708,7 +38711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2473190</v>
       </c>
@@ -38845,7 +38848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2470423</v>
       </c>
@@ -38982,7 +38985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2460467</v>
       </c>
@@ -39119,7 +39122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2447671</v>
       </c>
@@ -39256,7 +39259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2467025</v>
       </c>
@@ -39393,7 +39396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2469186</v>
       </c>
@@ -39530,7 +39533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2470614</v>
       </c>
@@ -39667,7 +39670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2398054</v>
       </c>
@@ -39804,7 +39807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2441576</v>
       </c>
@@ -39941,7 +39944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2446965</v>
       </c>
@@ -40078,7 +40081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2471349</v>
       </c>
@@ -40215,7 +40218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2397371</v>
       </c>
@@ -40352,7 +40355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2374797</v>
       </c>
@@ -40489,7 +40492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2461348</v>
       </c>
@@ -40626,7 +40629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2514090</v>
       </c>
@@ -40763,7 +40766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2604047</v>
       </c>
@@ -40900,7 +40903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2485380</v>
       </c>
@@ -41037,7 +41040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2472058</v>
       </c>
@@ -41174,7 +41177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2463436</v>
       </c>
@@ -41311,7 +41314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2473616</v>
       </c>
@@ -41448,8 +41451,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:46" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="3:46" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="3:46" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C289" s="25" t="s">
         <v>32</v>
       </c>
@@ -41620,7 +41623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C290" s="28" t="s">
         <v>33</v>
       </c>
@@ -41793,7 +41796,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="291" spans="3:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C291" s="30"/>
       <c r="D291" s="31">
         <v>1</v>
@@ -41967,12 +41970,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="43" width="6.1640625" customWidth="1"/>
+    <col min="4" max="43" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -42103,7 +42106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2475836</v>
       </c>
@@ -42231,7 +42234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2466608</v>
       </c>
@@ -42359,7 +42362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2371373</v>
       </c>
@@ -42487,7 +42490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2460222</v>
       </c>
@@ -42615,7 +42618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2470463</v>
       </c>
@@ -42743,7 +42746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2446033</v>
       </c>
@@ -42871,7 +42874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2445663</v>
       </c>
@@ -42999,7 +43002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2477249</v>
       </c>
@@ -43127,7 +43130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2463394</v>
       </c>
@@ -43255,7 +43258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2447854</v>
       </c>
@@ -43383,7 +43386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2367347</v>
       </c>
@@ -43511,7 +43514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2383071</v>
       </c>
@@ -43639,7 +43642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="69">
         <v>2474960</v>
       </c>
@@ -43768,7 +43771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2477415</v>
       </c>
@@ -43896,7 +43899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2575386</v>
       </c>
@@ -44024,7 +44027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2460275</v>
       </c>
@@ -44152,7 +44155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2471844</v>
       </c>
@@ -44280,7 +44283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2469368</v>
       </c>
@@ -44408,7 +44411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2460178</v>
       </c>
@@ -44536,7 +44539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2466637</v>
       </c>
@@ -44664,7 +44667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2472609</v>
       </c>
@@ -44792,7 +44795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2473919</v>
       </c>
@@ -44920,7 +44923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2472950</v>
       </c>
@@ -45048,7 +45051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2470724</v>
       </c>
@@ -45176,7 +45179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2449284</v>
       </c>
@@ -45304,7 +45307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2375249</v>
       </c>
@@ -45432,7 +45435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2474444</v>
       </c>
@@ -45560,7 +45563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2459206</v>
       </c>
@@ -45688,7 +45691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2473077</v>
       </c>
@@ -45816,7 +45819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2463987</v>
       </c>
@@ -45944,7 +45947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2461060</v>
       </c>
@@ -46072,7 +46075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="69">
         <v>2471197</v>
       </c>
@@ -46201,7 +46204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2445567</v>
       </c>
@@ -46329,7 +46332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2467427</v>
       </c>
@@ -46457,7 +46460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2459364</v>
       </c>
@@ -46585,7 +46588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2467425</v>
       </c>
@@ -46713,7 +46716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2397007</v>
       </c>
@@ -46841,7 +46844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2395330</v>
       </c>
@@ -46969,7 +46972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2468759</v>
       </c>
@@ -47097,7 +47100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2461288</v>
       </c>
@@ -47225,7 +47228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2500187</v>
       </c>
@@ -47353,7 +47356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2472947</v>
       </c>
@@ -47481,7 +47484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2397335</v>
       </c>
@@ -47609,7 +47612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2468164</v>
       </c>
@@ -47737,7 +47740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2476680</v>
       </c>
@@ -47865,7 +47868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2489728</v>
       </c>
@@ -47993,7 +47996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2461897</v>
       </c>
@@ -48121,7 +48124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2447454</v>
       </c>
@@ -48249,7 +48252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2389243</v>
       </c>
@@ -48377,7 +48380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2466569</v>
       </c>
@@ -48505,7 +48508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2448095</v>
       </c>
@@ -48633,7 +48636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2448317</v>
       </c>
@@ -48761,7 +48764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2477408</v>
       </c>
@@ -48889,7 +48892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2445979</v>
       </c>
@@ -49017,7 +49020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2461100</v>
       </c>
@@ -49145,7 +49148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2448118</v>
       </c>
@@ -49273,7 +49276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2441251</v>
       </c>
@@ -49401,7 +49404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2468230</v>
       </c>
@@ -49529,7 +49532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2461323</v>
       </c>
@@ -49657,7 +49660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2472539</v>
       </c>
@@ -49785,7 +49788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2460825</v>
       </c>
@@ -49913,7 +49916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="69">
         <v>2461409</v>
       </c>
@@ -50042,7 +50045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2469215</v>
       </c>
@@ -50170,7 +50173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2460816</v>
       </c>
@@ -50298,7 +50301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2397400</v>
       </c>
@@ -50426,7 +50429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2374905</v>
       </c>
@@ -50554,7 +50557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2448788</v>
       </c>
@@ -50682,7 +50685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2486354</v>
       </c>
@@ -50810,7 +50813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2466206</v>
       </c>
@@ -50938,7 +50941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2445958</v>
       </c>
@@ -51066,7 +51069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2465376</v>
       </c>
@@ -51194,7 +51197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2483362</v>
       </c>
@@ -51322,7 +51325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2474484</v>
       </c>
@@ -51450,7 +51453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2473590</v>
       </c>
@@ -51578,7 +51581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2480713</v>
       </c>
@@ -51706,7 +51709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2483552</v>
       </c>
@@ -51834,7 +51837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2483652</v>
       </c>
@@ -51962,7 +51965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2471517</v>
       </c>
@@ -52090,7 +52093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2441545</v>
       </c>
@@ -52218,7 +52221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2457661</v>
       </c>
@@ -52346,7 +52349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2474652</v>
       </c>
@@ -52474,7 +52477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2469868</v>
       </c>
@@ -52602,7 +52605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2633925</v>
       </c>
@@ -52730,7 +52733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2464875</v>
       </c>
@@ -52858,7 +52861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2462438</v>
       </c>
@@ -52986,7 +52989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2383406</v>
       </c>
@@ -53114,7 +53117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2446004</v>
       </c>
@@ -53242,7 +53245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2391565</v>
       </c>
@@ -53370,7 +53373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2363900</v>
       </c>
@@ -53498,7 +53501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2471046</v>
       </c>
@@ -53626,7 +53629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2386066</v>
       </c>
@@ -53754,7 +53757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2486240</v>
       </c>
@@ -53882,7 +53885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2478047</v>
       </c>
@@ -54010,7 +54013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2448949</v>
       </c>
@@ -54138,7 +54141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2447003</v>
       </c>
@@ -54266,7 +54269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2470419</v>
       </c>
@@ -54394,7 +54397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2489657</v>
       </c>
@@ -54522,7 +54525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2468369</v>
       </c>
@@ -54650,7 +54653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2447821</v>
       </c>
@@ -54778,7 +54781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2468597</v>
       </c>
@@ -54906,7 +54909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2465549</v>
       </c>
@@ -55034,7 +55037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2472746</v>
       </c>
@@ -55162,7 +55165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2448032</v>
       </c>
@@ -55290,7 +55293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2490320</v>
       </c>
@@ -55418,7 +55421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2458180</v>
       </c>
@@ -55546,7 +55549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2488572</v>
       </c>
@@ -55674,7 +55677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2445320</v>
       </c>
@@ -55802,7 +55805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2470025</v>
       </c>
@@ -55930,7 +55933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2490093</v>
       </c>
@@ -56058,7 +56061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2463439</v>
       </c>
@@ -56186,7 +56189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2467283</v>
       </c>
@@ -56314,7 +56317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2468143</v>
       </c>
@@ -56442,7 +56445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2465220</v>
       </c>
@@ -56570,7 +56573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2569746</v>
       </c>
@@ -56698,7 +56701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2460367</v>
       </c>
@@ -56826,7 +56829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2476102</v>
       </c>
@@ -56954,7 +56957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2475501</v>
       </c>
@@ -57082,7 +57085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2488564</v>
       </c>
@@ -57210,7 +57213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2563749</v>
       </c>
@@ -57338,7 +57341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2479407</v>
       </c>
@@ -57466,7 +57469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2464769</v>
       </c>
@@ -57594,7 +57597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2445951</v>
       </c>
@@ -57722,7 +57725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2446915</v>
       </c>
@@ -57850,7 +57853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2472033</v>
       </c>
@@ -57978,7 +57981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2460236</v>
       </c>
@@ -58106,7 +58109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2404288</v>
       </c>
@@ -58234,7 +58237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2462740</v>
       </c>
@@ -58362,7 +58365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2587517</v>
       </c>
@@ -58490,7 +58493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2473029</v>
       </c>
@@ -58618,7 +58621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2445750</v>
       </c>
@@ -58746,7 +58749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2475992</v>
       </c>
@@ -58874,7 +58877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2459332</v>
       </c>
@@ -59002,7 +59005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2472834</v>
       </c>
@@ -59130,7 +59133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2459587</v>
       </c>
@@ -59258,7 +59261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2471666</v>
       </c>
@@ -59386,7 +59389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2459147</v>
       </c>
@@ -59514,7 +59517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2472842</v>
       </c>
@@ -59642,7 +59645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2489791</v>
       </c>
@@ -59770,7 +59773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2460095</v>
       </c>
@@ -59898,7 +59901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2468204</v>
       </c>
@@ -60026,7 +60029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2470394</v>
       </c>
@@ -60154,7 +60157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2471982</v>
       </c>
@@ -60282,7 +60285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2469670</v>
       </c>
@@ -60410,7 +60413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2471085</v>
       </c>
@@ -60538,7 +60541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2460930</v>
       </c>
@@ -60666,7 +60669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2464574</v>
       </c>
@@ -60794,7 +60797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2381943</v>
       </c>
@@ -60922,7 +60925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2446193</v>
       </c>
@@ -61050,7 +61053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2472434</v>
       </c>
@@ -61178,7 +61181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2471344</v>
       </c>
@@ -61306,7 +61309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2466114</v>
       </c>
@@ -61434,7 +61437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2459967</v>
       </c>
@@ -61562,7 +61565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2369630</v>
       </c>
@@ -61690,7 +61693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2470406</v>
       </c>
@@ -61818,7 +61821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2471509</v>
       </c>
@@ -61946,7 +61949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2449280</v>
       </c>
@@ -62074,7 +62077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2471245</v>
       </c>
@@ -62202,7 +62205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2473388</v>
       </c>
@@ -62330,7 +62333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2463984</v>
       </c>
@@ -62458,7 +62461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2459737</v>
       </c>
@@ -62586,7 +62589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2462671</v>
       </c>
@@ -62714,7 +62717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2466786</v>
       </c>
@@ -62842,7 +62845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2394721</v>
       </c>
@@ -62970,7 +62973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2473980</v>
       </c>
@@ -63098,7 +63101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2480771</v>
       </c>
@@ -63226,7 +63229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2472296</v>
       </c>
@@ -63354,7 +63357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2461711</v>
       </c>
@@ -63482,7 +63485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2446346</v>
       </c>
@@ -63610,7 +63613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2466477</v>
       </c>
@@ -63738,7 +63741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2470058</v>
       </c>
@@ -63866,7 +63869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2446469</v>
       </c>
@@ -63994,7 +63997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2471125</v>
       </c>
@@ -64122,7 +64125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2469091</v>
       </c>
@@ -64250,7 +64253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2470786</v>
       </c>
@@ -64378,7 +64381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2459209</v>
       </c>
@@ -64506,7 +64509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2458016</v>
       </c>
@@ -64634,7 +64637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2448525</v>
       </c>
@@ -64762,7 +64765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2369348</v>
       </c>
@@ -64890,7 +64893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2461221</v>
       </c>
@@ -65018,7 +65021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2471591</v>
       </c>
@@ -65146,7 +65149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2449234</v>
       </c>
@@ -65274,7 +65277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2365639</v>
       </c>
@@ -65402,7 +65405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2487380</v>
       </c>
@@ -65530,7 +65533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2470267</v>
       </c>
@@ -65658,7 +65661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2486349</v>
       </c>
@@ -65786,7 +65789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2442433</v>
       </c>
@@ -65914,7 +65917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2486689</v>
       </c>
@@ -66042,7 +66045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2488077</v>
       </c>
@@ -66170,7 +66173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2446057</v>
       </c>
@@ -66298,7 +66301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2469140</v>
       </c>
@@ -66426,7 +66429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2448512</v>
       </c>
@@ -66554,7 +66557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2461833</v>
       </c>
@@ -66682,7 +66685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2472752</v>
       </c>
@@ -66810,7 +66813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2457637</v>
       </c>
@@ -66938,7 +66941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2488264</v>
       </c>
@@ -67066,7 +67069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2483846</v>
       </c>
@@ -67194,7 +67197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2461838</v>
       </c>
@@ -67322,7 +67325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2468953</v>
       </c>
@@ -67450,7 +67453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2449040</v>
       </c>
@@ -67578,7 +67581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2556433</v>
       </c>
@@ -67706,7 +67709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2466812</v>
       </c>
@@ -67834,7 +67837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2369028</v>
       </c>
@@ -67962,7 +67965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2461567</v>
       </c>
@@ -68090,7 +68093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2401803</v>
       </c>
@@ -68218,7 +68221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2446578</v>
       </c>
@@ -68346,7 +68349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2461222</v>
       </c>
@@ -68474,7 +68477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2486018</v>
       </c>
@@ -68602,7 +68605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2459974</v>
       </c>
@@ -68730,7 +68733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2467819</v>
       </c>
@@ -68858,7 +68861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2488610</v>
       </c>
@@ -68986,7 +68989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2407419</v>
       </c>
@@ -69114,7 +69117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2472458</v>
       </c>
@@ -69242,7 +69245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2473892</v>
       </c>
@@ -69370,7 +69373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2488322</v>
       </c>
@@ -69498,7 +69501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2447571</v>
       </c>
@@ -69626,7 +69629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2462052</v>
       </c>
@@ -69754,7 +69757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2419913</v>
       </c>
@@ -69882,7 +69885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2446972</v>
       </c>
@@ -70010,7 +70013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2462258</v>
       </c>
@@ -70138,7 +70141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2380228</v>
       </c>
@@ -70266,7 +70269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2448578</v>
       </c>
@@ -70394,7 +70397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A223" s="69">
         <v>2447323</v>
       </c>
@@ -70523,7 +70526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2467558</v>
       </c>
@@ -70651,7 +70654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2403568</v>
       </c>
@@ -70779,7 +70782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2473484</v>
       </c>
@@ -70907,7 +70910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2448530</v>
       </c>
@@ -71035,7 +71038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2473489</v>
       </c>
@@ -71163,7 +71166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2470138</v>
       </c>
@@ -71291,7 +71294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2446098</v>
       </c>
@@ -71419,7 +71422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2462744</v>
       </c>
@@ -71547,7 +71550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2387697</v>
       </c>
@@ -71675,7 +71678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2414832</v>
       </c>
@@ -71803,7 +71806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2460524</v>
       </c>
@@ -71931,7 +71934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2403829</v>
       </c>
@@ -72059,7 +72062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2466895</v>
       </c>
@@ -72187,7 +72190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2486181</v>
       </c>
@@ -72315,7 +72318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2460194</v>
       </c>
@@ -72443,7 +72446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2467462</v>
       </c>
@@ -72571,7 +72574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2462249</v>
       </c>
@@ -72699,7 +72702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2460514</v>
       </c>
@@ -72827,7 +72830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2449007</v>
       </c>
@@ -72955,7 +72958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2470432</v>
       </c>
@@ -73083,7 +73086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2457955</v>
       </c>
@@ -73211,7 +73214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2402647</v>
       </c>
@@ -73339,7 +73342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2467768</v>
       </c>
@@ -73467,7 +73470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2469297</v>
       </c>
@@ -73595,7 +73598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2568742</v>
       </c>
@@ -73723,7 +73726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2466089</v>
       </c>
@@ -73851,7 +73854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2489413</v>
       </c>
@@ -73979,7 +73982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2495925</v>
       </c>
@@ -74107,7 +74110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2384897</v>
       </c>
@@ -74235,7 +74238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2466479</v>
       </c>
@@ -74363,7 +74366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2466897</v>
       </c>
@@ -74491,7 +74494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2484868</v>
       </c>
@@ -74619,7 +74622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2470035</v>
       </c>
@@ -74747,7 +74750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2471383</v>
       </c>
@@ -74875,7 +74878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2486969</v>
       </c>
@@ -75003,7 +75006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2470597</v>
       </c>
@@ -75131,7 +75134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2482072</v>
       </c>
@@ -75259,7 +75262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2468534</v>
       </c>
@@ -75387,7 +75390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2484150</v>
       </c>
@@ -75515,7 +75518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2478675</v>
       </c>
@@ -75643,7 +75646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2463162</v>
       </c>
@@ -75771,7 +75774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2447119</v>
       </c>
@@ -75899,7 +75902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2460979</v>
       </c>
@@ -76027,7 +76030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2479981</v>
       </c>
@@ -76155,7 +76158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2473190</v>
       </c>
@@ -76283,7 +76286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2470423</v>
       </c>
@@ -76411,7 +76414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2460467</v>
       </c>
@@ -76539,7 +76542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2447671</v>
       </c>
@@ -76667,7 +76670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2467025</v>
       </c>
@@ -76795,7 +76798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2469186</v>
       </c>
@@ -76923,7 +76926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2470614</v>
       </c>
@@ -77051,7 +77054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2398054</v>
       </c>
@@ -77179,7 +77182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2441576</v>
       </c>
@@ -77307,7 +77310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2446965</v>
       </c>
@@ -77435,7 +77438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2471349</v>
       </c>
@@ -77563,7 +77566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2397371</v>
       </c>
@@ -77691,7 +77694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2374797</v>
       </c>
@@ -77819,7 +77822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2461348</v>
       </c>
@@ -77947,7 +77950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2514090</v>
       </c>
@@ -78075,7 +78078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2604047</v>
       </c>
@@ -78203,7 +78206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2485380</v>
       </c>
@@ -78331,7 +78334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2472058</v>
       </c>
@@ -78459,7 +78462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2463436</v>
       </c>
@@ -78587,7 +78590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2473616</v>
       </c>
@@ -78715,8 +78718,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="3:43" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="3:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C289" s="52" t="s">
         <v>17</v>
       </c>
@@ -78841,7 +78844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="290" spans="3:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C290" s="66" t="s">
         <v>38</v>
       </c>
@@ -78966,7 +78969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="3:43" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C291" s="57" t="s">
         <v>4</v>
       </c>
@@ -79131,7 +79134,7 @@
         <v>0.16083916083916083</v>
       </c>
     </row>
-    <row r="292" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C292" s="47" t="s">
         <v>3</v>
       </c>
@@ -79296,7 +79299,7 @@
         <v>0.1993006993006993</v>
       </c>
     </row>
-    <row r="293" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C293" s="47" t="s">
         <v>5</v>
       </c>
@@ -79461,7 +79464,7 @@
         <v>8.7412587412587409E-2</v>
       </c>
     </row>
-    <row r="294" spans="3:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C294" s="48" t="s">
         <v>6</v>
       </c>
@@ -79626,7 +79629,7 @@
         <v>0.54895104895104896</v>
       </c>
     </row>
-    <row r="295" spans="3:43" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="295" spans="3:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79640,13 +79643,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="3" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
@@ -79666,7 +79669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
@@ -79688,7 +79691,7 @@
         <v>0.42748091603053434</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>15</v>
       </c>
@@ -79706,7 +79709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>4</v>
       </c>
@@ -79724,7 +79727,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>3</v>
       </c>
@@ -79742,7 +79745,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
@@ -79760,7 +79763,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>6</v>
       </c>
@@ -79778,7 +79781,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>12</v>
       </c>
@@ -79796,7 +79799,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>8</v>
       </c>
@@ -79814,7 +79817,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>7</v>
       </c>
@@ -79832,7 +79835,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>13</v>
       </c>
@@ -79850,7 +79853,7 @@
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>10</v>
       </c>
@@ -79868,7 +79871,7 @@
         <v>0.58620689655172409</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>11</v>
       </c>
@@ -79886,7 +79889,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79901,9 +79904,9 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -79911,7 +79914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -79919,7 +79922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -79927,7 +79930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -79935,7 +79938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -79943,7 +79946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -79951,7 +79954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -79959,7 +79962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -79967,7 +79970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -79975,7 +79978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -79983,7 +79986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -79991,7 +79994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -79999,7 +80002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -80007,7 +80010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -80015,7 +80018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -80023,7 +80026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -80031,7 +80034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -80039,7 +80042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -80047,7 +80050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -80055,7 +80058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -80063,7 +80066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -80071,7 +80074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -80079,7 +80082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -80087,7 +80090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -80095,7 +80098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -80103,7 +80106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -80111,7 +80114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -80119,7 +80122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -80127,7 +80130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -80135,7 +80138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -80143,7 +80146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -80151,7 +80154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -80159,7 +80162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -80167,7 +80170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -80175,7 +80178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -80183,7 +80186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -80191,7 +80194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -80199,7 +80202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -80207,7 +80210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -80215,7 +80218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -80223,7 +80226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
